--- a/Deliverable 3/Design Decisions.xlsx
+++ b/Deliverable 3/Design Decisions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Pizza-Aholics Anonymous Application</t>
   </si>
@@ -44,6 +44,9 @@
     <t>Source Control</t>
   </si>
   <si>
+    <t>System</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">For source control, we're utilizing </t>
     </r>
@@ -51,7 +54,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -68,6 +71,149 @@
       </rPr>
       <t>.
 The project repository is located in: https://github.com/leonluocheng/Pizza</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system will be implemented as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>two server side applications</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pizza Anonymous Web API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. The REST API will expose consummable paths for the application.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pizza Anonymous GUI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The GUI will consume the Pizza Anonymous Web API.</t>
+    </r>
+  </si>
+  <si>
+    <t>Language &amp; Framework</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Pizza Anonymous Web API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will implement:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Language(s)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+- C#
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Framework(s)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+- ASP .NET MVC 4.5
+- ASP .NET Web API 2.0
+- Entity Framework 6.1
+- Ninject</t>
     </r>
   </si>
 </sst>
@@ -75,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,14 +238,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -109,6 +247,21 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,10 +296,10 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -441,17 +594,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C5"/>
+  <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="5"/>
-    <col min="2" max="2" width="17.36328125" customWidth="1"/>
-    <col min="3" max="3" width="78.54296875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27.36328125" customWidth="1"/>
+    <col min="3" max="3" width="87.1796875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
@@ -483,7 +636,37 @@
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Deliverable 3/Design Decisions.xlsx
+++ b/Deliverable 3/Design Decisions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Pizza-Aholics Anonymous Application</t>
   </si>
@@ -171,6 +171,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
@@ -193,6 +194,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
@@ -216,12 +218,187 @@
 - Ninject</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Pizza Anonymous GUI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will implement:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Language(s)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+- C#
+- JavaScript
+- JQuery
+- HTML5
+- CSS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Framework(s)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+- ASP .NET MVC 4.5
+- Bootstrap
+- Knockout JS</t>
+    </r>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system will use a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SQL Server Compact 4.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as a database.
+The database is a modular, file-based SQL database that will be located in a specific location within the solution. Currently, it's located in: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…\PizzaRepository\App_Data\PizzaDB.sdf</t>
+    </r>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>The Pizza Anonymous Web API will accept requests using RESTful Http Request methods.
+(GET, PUT, POST, DELETE)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Pizza Anonymous Web API will return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JSON objects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Pizza Anonymous Web API will create </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reports as text files (.txt)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,13 +422,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
@@ -260,8 +430,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -281,7 +475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -289,16 +483,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -313,6 +524,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,79 +829,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C8"/>
+  <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="8.7265625" style="4"/>
     <col min="2" max="2" width="27.36328125" customWidth="1"/>
-    <col min="3" max="3" width="87.1796875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.1796875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="A6" s="10">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+    <row r="8" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="13">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="14" t="s">
         <v>9</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="13">
+        <v>5</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="13">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="13">
+        <v>7</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="13">
+        <v>8</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Deliverable 3/Design Decisions.xlsx
+++ b/Deliverable 3/Design Decisions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Pizza-Aholics Anonymous Application</t>
   </si>
@@ -392,6 +392,12 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>Unit Testing</t>
+  </si>
+  <si>
+    <t>The system uses VisualStudio.TestTools.UnitTesting framework as unit test provider.</t>
   </si>
 </sst>
 </file>
@@ -829,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C12"/>
+  <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -951,6 +957,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
